--- a/Python/Result/Hybrid_rmse.xlsx
+++ b/Python/Result/Hybrid_rmse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,12 +61,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -97,7 +104,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -113,7 +120,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -381,7 +388,7 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -957,13 +964,14 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A17"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>